--- a/receipt_info.xlsx
+++ b/receipt_info.xlsx
@@ -507,7 +507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,6 +776,16 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>25.95</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>02/28/2024</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
         <v>25.95</v>
       </c>
     </row>
